--- a/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-2.xlsx
+++ b/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-2.xlsx
@@ -472,12 +472,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>size=29, code size=84] JIT IL</t>
+          <t>size=29, code size=84] IL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>JIT compiled Encoding:FilterDisallowedEncodings(Encoding):Encoding [Tier0, IL compiled LocalAppContextSwitches:get_EnableUnsafeUTF7Encoding():bool [Tier0,</t>
+          <t>JIT compiled Encoding:FilterDisallowedEncodings(Encoding):Encoding [Tier0, IL JIT compiled LocalAppContextSwitches:get_EnableUnsafeUTF7Encoding():bool [Tier0,</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
